--- a/Data/testcase_01.xlsx
+++ b/Data/testcase_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\AutoTest\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\autotest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E9C42-8E56-4552-9C6B-C9E955524822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E04A6-48E2-407C-9502-ADA62DCAB9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="5460" windowWidth="12585" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -59,11 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"jiangtianshi","password":"000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"jts","password":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +392,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,10 +429,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
